--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -54,43 +54,6 @@
     <t>Concepts Covered</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Linear Regression, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Assumptions of Linear Regression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gradient Descent</t>
-    </r>
-  </si>
-  <si>
     <t>Data Sets</t>
   </si>
   <si>
@@ -191,6 +154,9 @@
   </si>
   <si>
     <t>Naive Bayes, Bayes's Theorem, pkl files</t>
+  </si>
+  <si>
+    <t>Linear Regression, Assumptions of Linear Regression, Gradient Descent</t>
   </si>
 </sst>
 </file>
@@ -536,7 +502,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -613,10 +579,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -633,55 +599,55 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -689,46 +655,46 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,25 +702,25 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,10 +728,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,34 +739,34 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Chapter</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Dimentionality Reduction</t>
   </si>
   <si>
-    <t>PCA, LDA, Kernel PCA</t>
-  </si>
-  <si>
     <t>Natural Language Processing</t>
   </si>
   <si>
@@ -144,19 +141,88 @@
     <t>Tokenization, Stopword Removal , N- Grams,Stemming, Word Sense Disambiguation ,Count Vectorizer, TF-IDF(TfidfVectorizer), HashingVectorizer</t>
   </si>
   <si>
-    <t>Classification, Logistic, Confusion Matrix, Relevance of Confusion Matrix, Cross-Validation, Hyper-parameter, Grid Search</t>
-  </si>
-  <si>
     <t>Overfitting, Regularisation, L1 Norm Loss Function,L2 Norm Loss Function, Lasso, Ridge</t>
   </si>
   <si>
-    <t>SVM for Classification, Kernel SVMs,SVM for Regression,Hyper-parameters in SVM</t>
-  </si>
-  <si>
     <t>Naive Bayes, Bayes's Theorem, pkl files</t>
   </si>
   <si>
     <t>Linear Regression, Assumptions of Linear Regression, Gradient Descent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classification, Logistic, Confusion Matrix, Relevance of Confusion Matrix, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cross-Validation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Hyper-parameter, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grid Search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SVM for Classification, Kernel SVMs,SVM for Regression,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hyper-parameters in SVM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PCA, LDA, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kernel PCA</t>
+    </r>
+  </si>
+  <si>
+    <t>Bagging and Boosting</t>
+  </si>
+  <si>
+    <t>Bagging, Boosting, Random Forest, XGBoost</t>
   </si>
 </sst>
 </file>
@@ -499,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -608,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -629,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -647,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -731,7 +797,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,34 +805,45 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Course Details.xlsx
+++ b/Course Details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Chapter</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Overfitting, Regularisation, L1 Norm Loss Function,L2 Norm Loss Function, Lasso, Ridge</t>
-  </si>
-  <si>
-    <t>Naive Bayes, Bayes's Theorem, pkl files</t>
   </si>
   <si>
     <t>Linear Regression, Assumptions of Linear Regression, Gradient Descent</t>
@@ -223,6 +220,12 @@
   </si>
   <si>
     <t>Bagging, Boosting, Random Forest, XGBoost</t>
+  </si>
+  <si>
+    <t>Naive Bayes, Bayes's Theorem, pkl files, Bernouli and Multinomial NB</t>
+  </si>
+  <si>
+    <t>pima-data.csv, horror-train.csv</t>
   </si>
 </sst>
 </file>
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +579,7 @@
     <col min="1" max="1" width="14.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="127.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -618,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -695,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -713,7 +716,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -797,7 +803,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
